--- a/esp8266文档1.xlsx
+++ b/esp8266文档1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="模块引脚" sheetId="1" r:id="rId1"/>
@@ -3858,8 +3858,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3869,7 +3869,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13335000" cy="25269824"/>
+          <a:ext cx="13335000" cy="26746200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8903,6 +8903,194 @@
             <a:latin typeface="宋体"/>
             <a:ea typeface="宋体"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6000750" y="13306424"/>
+          <a:ext cx="5648324" cy="10515602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>gpio16_output_conf();          //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>初始化为输出模式</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>gpio16_output_set(0);       //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>输出指定电平</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>gpio16InputConf();             //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>配置为输入模式</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>gpio16InputGet();             //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>获取管脚输入</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -30291,8 +30479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H16:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="U74" sqref="U74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30319,7 +30507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H16:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>

--- a/esp8266文档1.xlsx
+++ b/esp8266文档1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="模块引脚" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="I2C" sheetId="14" r:id="rId13"/>
     <sheet name="SPI" sheetId="15" r:id="rId14"/>
     <sheet name="OTA" sheetId="16" r:id="rId15"/>
+    <sheet name="25QXX" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -13942,6 +13943,58 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9010650" cy="8153400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30479,7 +30532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H16:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
@@ -30593,6 +30646,21 @@
   <oleObjects>
     <oleObject progId="包装程序外壳对象" shapeId="3075" r:id="rId4"/>
   </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/esp8266文档1.xlsx
+++ b/esp8266文档1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="750"/>
   </bookViews>
   <sheets>
     <sheet name="模块引脚" sheetId="1" r:id="rId1"/>
@@ -30479,7 +30479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B20:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
@@ -30653,7 +30653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
